--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -6,7 +6,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twelve/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twelve/Documents/GitHub/loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>借款日</t>
   </si>
@@ -42,16 +42,17 @@
     <t>借款方向</t>
   </si>
   <si>
+    <t>王泽华</t>
+  </si>
+  <si>
+    <t>王亚瑞</t>
+  </si>
+  <si>
+    <t>借款年化利率</t>
+  </si>
+  <si>
     <t>乙方借予甲方</t>
-  </si>
-  <si>
-    <t>王泽华</t>
-  </si>
-  <si>
-    <t>王亚瑞</t>
-  </si>
-  <si>
-    <t>借款年化利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -59,13 +60,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,9 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -401,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -412,13 +417,13 @@
         <v>2500</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="2">
         <v>0.04</v>
@@ -426,151 +431,168 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43313</v>
+        <v>43301</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43344</v>
+        <v>43332</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43374</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43405</v>
+        <v>43393</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43435</v>
+        <v>43424</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43466</v>
+        <v>43454</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43497</v>
+        <v>43485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43525</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43556</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43586</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43617</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43647</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43678</v>
+        <v>43666</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43709</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43739</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43770</v>
+        <v>43758</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43800</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43831</v>
+        <v>43819</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43862</v>
+        <v>43850</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43891</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43922</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43952</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43983</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44013</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44044</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44075</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44105</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44136</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44166</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>44185</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -585,6 +607,7 @@
       <c r="A36" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>借款日</t>
   </si>
@@ -68,6 +68,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,7 +382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -453,6 +456,21 @@
       <c r="A4" s="1">
         <v>43332</v>
       </c>
+      <c r="B4" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>借款日</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +476,21 @@
       <c r="A5" s="1">
         <v>43363</v>
       </c>
+      <c r="B5" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>借款日</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,6 +496,21 @@
       <c r="A6" s="1">
         <v>43393</v>
       </c>
+      <c r="B6" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -42,16 +42,18 @@
     <t>借款方向</t>
   </si>
   <si>
-    <t>王泽华</t>
-  </si>
-  <si>
-    <t>王亚瑞</t>
-  </si>
-  <si>
     <t>借款年化利率</t>
   </si>
   <si>
     <t>乙方借予甲方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twelve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +385,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,7 +411,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -420,13 +422,13 @@
         <v>2500</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="2">
         <v>0.04</v>
@@ -440,13 +442,13 @@
         <v>2500</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="2">
         <v>0.04</v>
@@ -460,13 +462,13 @@
         <v>2500</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>0.04</v>
@@ -480,13 +482,13 @@
         <v>2500</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
       <c r="F5" s="2">
         <v>0.04</v>
@@ -500,13 +502,13 @@
         <v>2500</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
       </c>
       <c r="F6" s="2">
         <v>0.04</v>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -13,7 +13,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="借款清单" sheetId="1" r:id="rId1"/>
+    <sheet name="超额购买罚款" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>借款日</t>
   </si>
@@ -54,6 +55,35 @@
   </si>
   <si>
     <t>worry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twelve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           姓名
+次数</t>
+    <rPh sb="43" eb="44">
+      <t>xing ming</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ci shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/2 灌篮高手漫画</t>
+    <rPh sb="10" eb="11">
+      <t>guan lan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>man hua</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,15 +126,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +438,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,4 +713,89 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="借款清单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>借款日</t>
   </si>
@@ -83,6 +83,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>man hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/9 电视</t>
+    <rPh sb="10" eb="11">
+      <t>dian shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -719,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,6 +755,9 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="借款清单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>借款日</t>
   </si>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,6 +578,21 @@
       <c r="A7" s="1">
         <v>43424</v>
       </c>
+      <c r="B7" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -726,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="借款清单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>借款日</t>
   </si>
@@ -90,6 +90,20 @@
     <t>2018/11/9 电视</t>
     <rPh sb="10" eb="11">
       <t>dian shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/1 大衣</t>
+    <rPh sb="10" eb="11">
+      <t>da yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/9 话剧</t>
+    <rPh sb="10" eb="11">
+      <t>hua ju</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -778,6 +792,12 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="借款清单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>借款日</t>
   </si>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,6 +612,21 @@
       <c r="A8" s="1">
         <v>43454</v>
       </c>
+      <c r="B8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -755,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>借款日</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,6 +631,21 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43485</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>借款日</t>
   </si>
@@ -104,6 +104,32 @@
     <t>2018/12/9 话剧</t>
     <rPh sb="10" eb="11">
       <t>hua ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <rPh sb="0" eb="1">
+      <t>li xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止2/20日利息已结清</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie qing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,19 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +514,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -507,8 +537,12 @@
       <c r="F2" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="3">
+        <f>B2*COUNTA(F3:$F$10)*30*0.04/360</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43301</v>
       </c>
@@ -527,8 +561,12 @@
       <c r="F3" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <f>B3*COUNTA(F4:$F$10)*30*0.04/360</f>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43332</v>
       </c>
@@ -547,8 +585,12 @@
       <c r="F4" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="3">
+        <f>B4*COUNTA(F5:$F$10)*30*0.04/360</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43363</v>
       </c>
@@ -567,8 +609,12 @@
       <c r="F5" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="3">
+        <f>B5*COUNTA(F6:$F$10)*30*0.04/360</f>
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43393</v>
       </c>
@@ -587,8 +633,12 @@
       <c r="F6" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="3">
+        <f>B6*COUNTA(F7:$F$10)*30*0.04/360</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43424</v>
       </c>
@@ -607,8 +657,12 @@
       <c r="F7" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="3">
+        <f>B7*COUNTA(F8:$F$10)*30*0.04/360</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43454</v>
       </c>
@@ -627,8 +681,12 @@
       <c r="F8" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <f>B8*COUNTA(F9:$F$10)*30*0.04/360</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43485</v>
       </c>
@@ -647,38 +705,64 @@
       <c r="F9" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="3">
+        <f>B9*COUNTA(F10:$F$10)*30*0.04/360</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43516</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="3">
+        <f>SUM(H2:H9)</f>
+        <v>300</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43575</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43605</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43636</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43666</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43697</v>
       </c>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>借款日</t>
   </si>
@@ -207,7 +207,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,6 +741,22 @@
       <c r="A11" s="1">
         <v>43544</v>
       </c>
+      <c r="B11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>借款日</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,6 +761,21 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43575</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>借款日</t>
   </si>
@@ -130,6 +130,32 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>jie qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <rPh sb="0" eb="1">
+      <t>ben jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止5/20日已还本金</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ben jin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,7 +511,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,6 +540,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
@@ -777,10 +806,17 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43605</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>借款日</t>
   </si>
@@ -155,6 +155,19 @@
       <t>huan</t>
     </rPh>
     <rPh sb="9" eb="10">
+      <t>ben jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款10000，剩余本金10000</t>
+    <rPh sb="0" eb="1">
+      <t>huan kuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>ben jin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,7 +524,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,82 +847,88 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43728</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43758</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43789</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43819</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>10000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43850</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43881</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43910</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43971</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44002</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44032</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44063</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44094</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44185</v>
       </c>
